--- a/name.xlsx
+++ b/name.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>301092401424</t>
+          <t>301092501505</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>زكريا عبد السلام حمود الراش</t>
+          <t>محمد عبد الهادى حسن الصراف</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>301092501492</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>دانه مسهوج ذياب العنزي</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>301092401424</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>زكريا عبد السلام حمود الراش</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>301092000962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>حوراء جاسر على الهزاع</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>301091600341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>راشد نبيل ياسين الزيدان</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>301091401094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>هند عادل شهيد عيسى</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>301090901441</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>هبه سليمان دريع العازمي</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>301090500963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>مشعل هيثم خالد برجسالبرجس</t>
         </is>
       </c>
     </row>
